--- a/myopia-business/bootstrap/src/main/resources/excel/ExportUniversitySchoolTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportUniversitySchoolTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="14040"/>
+    <workbookView windowWidth="14840" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t>ID</t>
   </si>
@@ -508,6 +508,405 @@
   </si>
   <si>
     <t>20）我走路很慢</t>
+  </si>
+  <si>
+    <t>{.id1}</t>
+  </si>
+  <si>
+    <t>{.province}</t>
+  </si>
+  <si>
+    <t>{.city}</t>
+  </si>
+  <si>
+    <t>{.district}</t>
+  </si>
+  <si>
+    <t>{.county}</t>
+  </si>
+  <si>
+    <t>{.point}</t>
+  </si>
+  <si>
+    <t>{.date}</t>
+  </si>
+  <si>
+    <t>{.a01}</t>
+  </si>
+  <si>
+    <t>{.a011}</t>
+  </si>
+  <si>
+    <t>{.a02}</t>
+  </si>
+  <si>
+    <t>{.a04}</t>
+  </si>
+  <si>
+    <t>{.a05}</t>
+  </si>
+  <si>
+    <t>{.a06}</t>
+  </si>
+  <si>
+    <t>{.a061}</t>
+  </si>
+  <si>
+    <t>{.a08}</t>
+  </si>
+  <si>
+    <t>{.a09}</t>
+  </si>
+  <si>
+    <t>{.b01}</t>
+  </si>
+  <si>
+    <t>{.b03}</t>
+  </si>
+  <si>
+    <t>{.b04}</t>
+  </si>
+  <si>
+    <t>{.b041}</t>
+  </si>
+  <si>
+    <t>{.b05}</t>
+  </si>
+  <si>
+    <t>{.b051}</t>
+  </si>
+  <si>
+    <t>{.b06}</t>
+  </si>
+  <si>
+    <t>{.b0611}</t>
+  </si>
+  <si>
+    <t>{.b09a}</t>
+  </si>
+  <si>
+    <t>{.b09a1}</t>
+  </si>
+  <si>
+    <t>{.b12}</t>
+  </si>
+  <si>
+    <t>{.e01}</t>
+  </si>
+  <si>
+    <t>{.e031}</t>
+  </si>
+  <si>
+    <t>{.e032}</t>
+  </si>
+  <si>
+    <t>{.e033}</t>
+  </si>
+  <si>
+    <t>{.e034}</t>
+  </si>
+  <si>
+    <t>{.e035}</t>
+  </si>
+  <si>
+    <t>{.e036}</t>
+  </si>
+  <si>
+    <t>{.e037}</t>
+  </si>
+  <si>
+    <t>{.e04}</t>
+  </si>
+  <si>
+    <t>{.e05}</t>
+  </si>
+  <si>
+    <t>{.e06}</t>
+  </si>
+  <si>
+    <t>{.e071}</t>
+  </si>
+  <si>
+    <t>{.e072}</t>
+  </si>
+  <si>
+    <t>{.e073}</t>
+  </si>
+  <si>
+    <t>{.e074}</t>
+  </si>
+  <si>
+    <t>{.e08}</t>
+  </si>
+  <si>
+    <t>{.e09}</t>
+  </si>
+  <si>
+    <t>{.e10}</t>
+  </si>
+  <si>
+    <t>{.e13b}</t>
+  </si>
+  <si>
+    <t>{.e13a}</t>
+  </si>
+  <si>
+    <t>{.e12}</t>
+  </si>
+  <si>
+    <t>{.f01}</t>
+  </si>
+  <si>
+    <t>{.f03}</t>
+  </si>
+  <si>
+    <t>{.f04}</t>
+  </si>
+  <si>
+    <t>{.f051a}</t>
+  </si>
+  <si>
+    <t>{.f07}</t>
+  </si>
+  <si>
+    <t>{.f08}</t>
+  </si>
+  <si>
+    <t>{.f09}</t>
+  </si>
+  <si>
+    <t>{.f10}</t>
+  </si>
+  <si>
+    <t>{.f081}</t>
+  </si>
+  <si>
+    <t>{.d02}</t>
+  </si>
+  <si>
+    <t>{.d021}</t>
+  </si>
+  <si>
+    <t>{.d011}</t>
+  </si>
+  <si>
+    <t>{.d012}</t>
+  </si>
+  <si>
+    <t>{.d013}</t>
+  </si>
+  <si>
+    <t>{.d014}</t>
+  </si>
+  <si>
+    <t>{.d015}</t>
+  </si>
+  <si>
+    <t>{.d016}</t>
+  </si>
+  <si>
+    <t>{.d017}</t>
+  </si>
+  <si>
+    <t>{.d018}</t>
+  </si>
+  <si>
+    <t>{.d019}</t>
+  </si>
+  <si>
+    <t>{.h04a}</t>
+  </si>
+  <si>
+    <t>{.h04b}</t>
+  </si>
+  <si>
+    <t>{.h04c}</t>
+  </si>
+  <si>
+    <t>{.h05a}</t>
+  </si>
+  <si>
+    <t>{.d031}</t>
+  </si>
+  <si>
+    <t>{.h06c}</t>
+  </si>
+  <si>
+    <t>{.h06d1}</t>
+  </si>
+  <si>
+    <t>{.h06e1}</t>
+  </si>
+  <si>
+    <t>{.h06f}</t>
+  </si>
+  <si>
+    <t>{.h06g1}</t>
+  </si>
+  <si>
+    <t>{.h06g}</t>
+  </si>
+  <si>
+    <t>{.k01}</t>
+  </si>
+  <si>
+    <t>{.k02}分钟</t>
+  </si>
+  <si>
+    <t>{.k03}</t>
+  </si>
+  <si>
+    <t>{.k04}</t>
+  </si>
+  <si>
+    <t>{.k05}</t>
+  </si>
+  <si>
+    <t>{.g01}</t>
+  </si>
+  <si>
+    <t>{.g02a}</t>
+  </si>
+  <si>
+    <t>{.g04}</t>
+  </si>
+  <si>
+    <t>{.g05}</t>
+  </si>
+  <si>
+    <t>{.g06}</t>
+  </si>
+  <si>
+    <t>{.g07}</t>
+  </si>
+  <si>
+    <t>{.g08}</t>
+  </si>
+  <si>
+    <t>{.g09}</t>
+  </si>
+  <si>
+    <t>{.g10}</t>
+  </si>
+  <si>
+    <t>{.i101}</t>
+  </si>
+  <si>
+    <t>{.i102}</t>
+  </si>
+  <si>
+    <t>{.i103}</t>
+  </si>
+  <si>
+    <t>{.i104}</t>
+  </si>
+  <si>
+    <t>{.i105}</t>
+  </si>
+  <si>
+    <t>{.i106}</t>
+  </si>
+  <si>
+    <t>{.i107}</t>
+  </si>
+  <si>
+    <t>{.i108}</t>
+  </si>
+  <si>
+    <t>{.i109}</t>
+  </si>
+  <si>
+    <t>{.i110}</t>
+  </si>
+  <si>
+    <t>{.i111}</t>
+  </si>
+  <si>
+    <t>{.i112}</t>
+  </si>
+  <si>
+    <t>{.i113}</t>
+  </si>
+  <si>
+    <t>{.i114}</t>
+  </si>
+  <si>
+    <t>{.i115}</t>
+  </si>
+  <si>
+    <t>{.i116}</t>
+  </si>
+  <si>
+    <t>{.i117}</t>
+  </si>
+  <si>
+    <t>{.i118}</t>
+  </si>
+  <si>
+    <t>{.i119}</t>
+  </si>
+  <si>
+    <t>{.i120}</t>
+  </si>
+  <si>
+    <t>{.total}</t>
+  </si>
+  <si>
+    <t>{.a07}</t>
+  </si>
+  <si>
+    <t>{.a071}</t>
+  </si>
+  <si>
+    <t>{.l02}</t>
+  </si>
+  <si>
+    <t>{.l021}</t>
+  </si>
+  <si>
+    <t>{.l03}</t>
+  </si>
+  <si>
+    <t>{.l04}</t>
+  </si>
+  <si>
+    <t>{.l05}</t>
+  </si>
+  <si>
+    <t>{.l06}</t>
+  </si>
+  <si>
+    <t>{.l07}</t>
+  </si>
+  <si>
+    <t>{.l08}</t>
+  </si>
+  <si>
+    <t>{.l09}</t>
+  </si>
+  <si>
+    <t>{.m01}</t>
+  </si>
+  <si>
+    <t>{.m02}</t>
+  </si>
+  <si>
+    <t>{.m03}</t>
+  </si>
+  <si>
+    <t>{.m04}</t>
+  </si>
+  <si>
+    <t>{.m05}</t>
+  </si>
+  <si>
+    <t>{.m06}</t>
+  </si>
+  <si>
+    <t>{.m07}</t>
+  </si>
+  <si>
+    <t>{.m08a}</t>
   </si>
 </sst>
 </file>
@@ -515,13 +914,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -542,20 +941,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,25 +977,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,7 +1002,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,17 +1010,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -637,9 +1032,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,30 +1047,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,6 +1072,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -714,7 +1101,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,31 +1161,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,19 +1197,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,49 +1257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,25 +1269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,36 +1281,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -948,19 +1335,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="double">
@@ -969,17 +1343,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1001,20 +1369,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1034,15 +1406,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1057,157 +1420,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,43 +1603,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1593,13 +1958,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:ED3"/>
+  <dimension ref="A1:ED4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BR2" sqref="BR2:BR3"/>
+    <sheetView tabSelected="1" topLeftCell="DZ1" workbookViewId="0">
+      <selection activeCell="ED4" sqref="ED4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="14.6083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.7166666666667" style="2" customWidth="1"/>
@@ -1743,7 +2108,7 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -1764,163 +2129,163 @@
       <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="11" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="11" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
       <c r="AX1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
       <c r="BG1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="8"/>
-      <c r="BQ1" s="8"/>
+      <c r="BH1" s="7"/>
+      <c r="BI1" s="7"/>
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7"/>
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="7"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
       <c r="BR1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="BS1" s="8"/>
-      <c r="BT1" s="8"/>
-      <c r="BU1" s="8"/>
-      <c r="BV1" s="8"/>
+      <c r="BS1" s="7"/>
+      <c r="BT1" s="7"/>
+      <c r="BU1" s="7"/>
+      <c r="BV1" s="7"/>
       <c r="BW1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="BX1" s="8"/>
-      <c r="BY1" s="8"/>
-      <c r="BZ1" s="8"/>
-      <c r="CA1" s="8"/>
-      <c r="CB1" s="8"/>
+      <c r="BX1" s="7"/>
+      <c r="BY1" s="7"/>
+      <c r="BZ1" s="7"/>
+      <c r="CA1" s="7"/>
+      <c r="CB1" s="7"/>
       <c r="CC1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="CD1" s="8"/>
-      <c r="CE1" s="8"/>
-      <c r="CF1" s="8"/>
-      <c r="CG1" s="8"/>
-      <c r="CH1" s="11" t="s">
+      <c r="CD1" s="7"/>
+      <c r="CE1" s="7"/>
+      <c r="CF1" s="7"/>
+      <c r="CG1" s="7"/>
+      <c r="CH1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="CI1" s="12"/>
-      <c r="CJ1" s="12"/>
-      <c r="CK1" s="12"/>
-      <c r="CL1" s="12"/>
-      <c r="CM1" s="12"/>
-      <c r="CN1" s="12"/>
-      <c r="CO1" s="12"/>
-      <c r="CP1" s="12"/>
+      <c r="CI1" s="7"/>
+      <c r="CJ1" s="7"/>
+      <c r="CK1" s="7"/>
+      <c r="CL1" s="7"/>
+      <c r="CM1" s="7"/>
+      <c r="CN1" s="7"/>
+      <c r="CO1" s="7"/>
+      <c r="CP1" s="7"/>
       <c r="CQ1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="CR1" s="8"/>
-      <c r="CS1" s="8"/>
-      <c r="CT1" s="8"/>
-      <c r="CU1" s="8"/>
-      <c r="CV1" s="8"/>
-      <c r="CW1" s="8"/>
-      <c r="CX1" s="8"/>
-      <c r="CY1" s="8"/>
-      <c r="CZ1" s="8"/>
-      <c r="DA1" s="8"/>
-      <c r="DB1" s="8"/>
-      <c r="DC1" s="8"/>
-      <c r="DD1" s="8"/>
-      <c r="DE1" s="8"/>
-      <c r="DF1" s="8"/>
-      <c r="DG1" s="8"/>
-      <c r="DH1" s="8"/>
-      <c r="DI1" s="8"/>
-      <c r="DJ1" s="8"/>
-      <c r="DK1" s="8"/>
-      <c r="DL1" s="7" t="s">
+      <c r="CR1" s="7"/>
+      <c r="CS1" s="7"/>
+      <c r="CT1" s="7"/>
+      <c r="CU1" s="7"/>
+      <c r="CV1" s="7"/>
+      <c r="CW1" s="7"/>
+      <c r="CX1" s="7"/>
+      <c r="CY1" s="7"/>
+      <c r="CZ1" s="7"/>
+      <c r="DA1" s="7"/>
+      <c r="DB1" s="7"/>
+      <c r="DC1" s="7"/>
+      <c r="DD1" s="7"/>
+      <c r="DE1" s="7"/>
+      <c r="DF1" s="7"/>
+      <c r="DG1" s="7"/>
+      <c r="DH1" s="7"/>
+      <c r="DI1" s="7"/>
+      <c r="DJ1" s="7"/>
+      <c r="DK1" s="7"/>
+      <c r="DL1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="DM1" s="8"/>
-      <c r="DN1" s="8"/>
-      <c r="DO1" s="8"/>
-      <c r="DP1" s="8"/>
-      <c r="DQ1" s="8"/>
-      <c r="DR1" s="8"/>
-      <c r="DS1" s="8"/>
-      <c r="DT1" s="8"/>
-      <c r="DU1" s="8"/>
-      <c r="DV1" s="17" t="s">
+      <c r="DM1" s="15"/>
+      <c r="DN1" s="15"/>
+      <c r="DO1" s="15"/>
+      <c r="DP1" s="15"/>
+      <c r="DQ1" s="15"/>
+      <c r="DR1" s="15"/>
+      <c r="DS1" s="15"/>
+      <c r="DT1" s="15"/>
+      <c r="DU1" s="15"/>
+      <c r="DV1" s="15"/>
+      <c r="DW1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="DW1" s="18"/>
-      <c r="DX1" s="18"/>
-      <c r="DY1" s="18"/>
-      <c r="DZ1" s="18"/>
-      <c r="EA1" s="18"/>
-      <c r="EB1" s="18"/>
-      <c r="EC1" s="18"/>
-      <c r="ED1" s="19"/>
+      <c r="DX1" s="16"/>
+      <c r="DY1" s="16"/>
+      <c r="DZ1" s="16"/>
+      <c r="EA1" s="16"/>
+      <c r="EB1" s="16"/>
+      <c r="EC1" s="16"/>
+      <c r="ED1" s="16"/>
     </row>
     <row r="2" ht="37" customHeight="1" spans="1:134">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
         <v>20</v>
       </c>
@@ -1936,433 +2301,433 @@
       <c r="M2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AD2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="15" t="s">
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AL2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AM2" s="15" t="s">
+      <c r="AM2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="11" t="s">
+      <c r="AN2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="9" t="s">
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AS2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AT2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AU2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AV2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AW2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AX2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="AY2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AZ2" s="9" t="s">
+      <c r="AZ2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BA2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BB2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BC2" s="9" t="s">
+      <c r="BC2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BD2" s="9" t="s">
+      <c r="BD2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BE2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BF2" s="9" t="s">
+      <c r="BF2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BG2" s="9" t="s">
+      <c r="BG2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BH2" s="9" t="s">
+      <c r="BH2" s="8" t="s">
         <v>62</v>
       </c>
       <c r="BI2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="8"/>
-      <c r="BL2" s="8"/>
-      <c r="BM2" s="8"/>
-      <c r="BN2" s="8"/>
-      <c r="BO2" s="8"/>
-      <c r="BP2" s="8"/>
-      <c r="BQ2" s="8"/>
-      <c r="BR2" s="15" t="s">
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+      <c r="BL2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BN2" s="7"/>
+      <c r="BO2" s="7"/>
+      <c r="BP2" s="7"/>
+      <c r="BQ2" s="7"/>
+      <c r="BR2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BS2" s="15" t="s">
+      <c r="BS2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BT2" s="15" t="s">
+      <c r="BT2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BU2" s="15" t="s">
+      <c r="BU2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BV2" s="15" t="s">
+      <c r="BV2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BW2" s="15" t="s">
+      <c r="BW2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="BX2" s="15" t="s">
+      <c r="BX2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="BY2" s="15" t="s">
+      <c r="BY2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BZ2" s="9" t="s">
+      <c r="BZ2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="CA2" s="15" t="s">
+      <c r="CA2" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="CB2" s="15" t="s">
+      <c r="CB2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="CC2" s="15" t="s">
+      <c r="CC2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="CD2" s="15" t="s">
+      <c r="CD2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="CE2" s="15" t="s">
+      <c r="CE2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="CF2" s="15" t="s">
+      <c r="CF2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="CG2" s="15" t="s">
+      <c r="CG2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="CH2" s="15" t="s">
+      <c r="CH2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="CI2" s="15" t="s">
+      <c r="CI2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="CJ2" s="15" t="s">
+      <c r="CJ2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="CK2" s="15" t="s">
+      <c r="CK2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="CL2" s="15" t="s">
+      <c r="CL2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="CM2" s="15" t="s">
+      <c r="CM2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="CN2" s="15" t="s">
+      <c r="CN2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="CO2" s="15" t="s">
+      <c r="CO2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="CP2" s="15" t="s">
+      <c r="CP2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="CQ2" s="15" t="s">
+      <c r="CQ2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="CR2" s="16"/>
-      <c r="CS2" s="16"/>
-      <c r="CT2" s="16"/>
-      <c r="CU2" s="16"/>
-      <c r="CV2" s="16"/>
-      <c r="CW2" s="16"/>
-      <c r="CX2" s="16"/>
-      <c r="CY2" s="16"/>
-      <c r="CZ2" s="16"/>
-      <c r="DA2" s="16"/>
-      <c r="DB2" s="16"/>
-      <c r="DC2" s="16"/>
-      <c r="DD2" s="16"/>
-      <c r="DE2" s="16"/>
-      <c r="DF2" s="16"/>
-      <c r="DG2" s="16"/>
-      <c r="DH2" s="16"/>
-      <c r="DI2" s="16"/>
-      <c r="DJ2" s="16"/>
-      <c r="DK2" s="15" t="s">
+      <c r="CR2" s="8"/>
+      <c r="CS2" s="8"/>
+      <c r="CT2" s="8"/>
+      <c r="CU2" s="8"/>
+      <c r="CV2" s="8"/>
+      <c r="CW2" s="8"/>
+      <c r="CX2" s="8"/>
+      <c r="CY2" s="8"/>
+      <c r="CZ2" s="8"/>
+      <c r="DA2" s="8"/>
+      <c r="DB2" s="8"/>
+      <c r="DC2" s="8"/>
+      <c r="DD2" s="8"/>
+      <c r="DE2" s="8"/>
+      <c r="DF2" s="8"/>
+      <c r="DG2" s="8"/>
+      <c r="DH2" s="8"/>
+      <c r="DI2" s="8"/>
+      <c r="DJ2" s="8"/>
+      <c r="DK2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="DL2" s="15" t="s">
+      <c r="DL2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="DM2" s="15" t="s">
+      <c r="DM2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="DN2" s="15" t="s">
+      <c r="DN2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="DO2" s="15" t="s">
+      <c r="DO2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="DP2" s="15" t="s">
+      <c r="DP2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="DQ2" s="15" t="s">
+      <c r="DQ2" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="DR2" s="15" t="s">
+      <c r="DR2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="DS2" s="15" t="s">
+      <c r="DS2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="DT2" s="15" t="s">
+      <c r="DT2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="DU2" s="15" t="s">
+      <c r="DU2" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="DV2" s="15" t="s">
+      <c r="DV2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="DW2" s="15" t="s">
+      <c r="DW2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="DX2" s="15" t="s">
+      <c r="DX2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="DY2" s="15" t="s">
+      <c r="DY2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="DZ2" s="15" t="s">
+      <c r="DZ2" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="EA2" s="15" t="s">
+      <c r="EA2" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="EB2" s="15" t="s">
+      <c r="EB2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="EC2" s="15" t="s">
+      <c r="EC2" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="ED2" s="15" t="s">
+      <c r="ED2" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" ht="96" customHeight="1" spans="1:134">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
       <c r="AD3" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AE3" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="AF3" s="14" t="s">
+      <c r="AF3" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="AG3" s="14" t="s">
+      <c r="AG3" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="AH3" s="14" t="s">
+      <c r="AH3" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="AI3" s="14" t="s">
+      <c r="AI3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="AJ3" s="15" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="15" t="s">
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="AO3" s="9" t="s">
+      <c r="AO3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AP3" s="9" t="s">
+      <c r="AP3" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AQ3" s="9" t="s">
+      <c r="AQ3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10"/>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="10"/>
-      <c r="BA3" s="10"/>
-      <c r="BB3" s="10"/>
-      <c r="BC3" s="10"/>
-      <c r="BD3" s="10"/>
-      <c r="BE3" s="10"/>
-      <c r="BF3" s="10"/>
-      <c r="BG3" s="10"/>
-      <c r="BH3" s="10"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
       <c r="BI3" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="BJ3" s="14" t="s">
+      <c r="BJ3" s="13" t="s">
         <v>122</v>
       </c>
       <c r="BK3" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="BL3" s="14" t="s">
+      <c r="BL3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="BM3" s="14" t="s">
+      <c r="BM3" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="BN3" s="14" t="s">
+      <c r="BN3" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="BO3" s="14" t="s">
+      <c r="BO3" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="BP3" s="14" t="s">
+      <c r="BP3" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="BQ3" s="14" t="s">
+      <c r="BQ3" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="BR3" s="16"/>
-      <c r="BS3" s="16"/>
-      <c r="BT3" s="16"/>
-      <c r="BU3" s="16"/>
-      <c r="BV3" s="16"/>
-      <c r="BW3" s="16"/>
-      <c r="BX3" s="16"/>
-      <c r="BY3" s="16"/>
-      <c r="BZ3" s="10"/>
-      <c r="CA3" s="16"/>
-      <c r="CB3" s="16"/>
-      <c r="CC3" s="16"/>
-      <c r="CD3" s="16"/>
-      <c r="CE3" s="16"/>
-      <c r="CF3" s="16"/>
-      <c r="CG3" s="16"/>
-      <c r="CH3" s="16"/>
-      <c r="CI3" s="16"/>
-      <c r="CJ3" s="16"/>
-      <c r="CK3" s="16"/>
-      <c r="CL3" s="16"/>
-      <c r="CM3" s="16"/>
-      <c r="CN3" s="16"/>
-      <c r="CO3" s="16"/>
-      <c r="CP3" s="16"/>
+      <c r="BR3" s="8"/>
+      <c r="BS3" s="8"/>
+      <c r="BT3" s="8"/>
+      <c r="BU3" s="8"/>
+      <c r="BV3" s="8"/>
+      <c r="BW3" s="8"/>
+      <c r="BX3" s="8"/>
+      <c r="BY3" s="8"/>
+      <c r="BZ3" s="8"/>
+      <c r="CA3" s="8"/>
+      <c r="CB3" s="8"/>
+      <c r="CC3" s="8"/>
+      <c r="CD3" s="8"/>
+      <c r="CE3" s="8"/>
+      <c r="CF3" s="8"/>
+      <c r="CG3" s="8"/>
+      <c r="CH3" s="8"/>
+      <c r="CI3" s="8"/>
+      <c r="CJ3" s="8"/>
+      <c r="CK3" s="8"/>
+      <c r="CL3" s="8"/>
+      <c r="CM3" s="8"/>
+      <c r="CN3" s="8"/>
+      <c r="CO3" s="8"/>
+      <c r="CP3" s="8"/>
       <c r="CQ3" s="13" t="s">
         <v>130</v>
       </c>
@@ -2423,26 +2788,428 @@
       <c r="DJ3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="DK3" s="16"/>
-      <c r="DL3" s="16"/>
-      <c r="DM3" s="16"/>
-      <c r="DN3" s="16"/>
-      <c r="DO3" s="16"/>
-      <c r="DP3" s="16"/>
-      <c r="DQ3" s="16"/>
-      <c r="DR3" s="16"/>
-      <c r="DS3" s="16"/>
-      <c r="DT3" s="16"/>
-      <c r="DU3" s="16"/>
-      <c r="DV3" s="16"/>
-      <c r="DW3" s="16"/>
-      <c r="DX3" s="16"/>
-      <c r="DY3" s="16"/>
-      <c r="DZ3" s="16"/>
-      <c r="EA3" s="16"/>
-      <c r="EB3" s="16"/>
-      <c r="EC3" s="16"/>
-      <c r="ED3" s="16"/>
+      <c r="DK3" s="8"/>
+      <c r="DL3" s="8"/>
+      <c r="DM3" s="8"/>
+      <c r="DN3" s="8"/>
+      <c r="DO3" s="8"/>
+      <c r="DP3" s="8"/>
+      <c r="DQ3" s="8"/>
+      <c r="DR3" s="8"/>
+      <c r="DS3" s="8"/>
+      <c r="DT3" s="8"/>
+      <c r="DU3" s="8"/>
+      <c r="DV3" s="8"/>
+      <c r="DW3" s="8"/>
+      <c r="DX3" s="8"/>
+      <c r="DY3" s="8"/>
+      <c r="DZ3" s="8"/>
+      <c r="EA3" s="8"/>
+      <c r="EB3" s="8"/>
+      <c r="EC3" s="8"/>
+      <c r="ED3" s="8"/>
+    </row>
+    <row r="4" ht="18" spans="1:134">
+      <c r="A4" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="BU4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="CI4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="CM4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="CN4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="CO4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="CP4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="CQ4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="CS4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CU4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="CW4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="CX4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="CY4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="CZ4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="DB4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="DC4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="DE4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="DF4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="DG4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="DH4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="DI4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="DJ4" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="DK4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="DM4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="DN4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="DO4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="DP4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="DQ4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="DR4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="DS4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="DT4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="DU4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="DV4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="DW4" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DX4" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="DY4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="DZ4" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="EA4" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="EB4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="EC4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="ED4" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="110">
@@ -2456,8 +3223,8 @@
     <mergeCell ref="CC1:CG1"/>
     <mergeCell ref="CH1:CP1"/>
     <mergeCell ref="CQ1:DK1"/>
-    <mergeCell ref="DL1:DU1"/>
-    <mergeCell ref="DV1:ED1"/>
+    <mergeCell ref="DL1:DV1"/>
+    <mergeCell ref="DW1:ED1"/>
     <mergeCell ref="AD2:AJ2"/>
     <mergeCell ref="AN2:AQ2"/>
     <mergeCell ref="BI2:BQ2"/>

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportUniversitySchoolTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportUniversitySchoolTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14840" windowHeight="14040"/>
+    <workbookView windowWidth="27900" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
   <si>
     <t>ID</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>{.id1}</t>
+  </si>
+  <si>
+    <t>{.schoolName}</t>
   </si>
   <si>
     <t>{.province}</t>
@@ -914,11 +917,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -942,7 +945,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -956,15 +997,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -984,17 +1027,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1008,40 +1057,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,38 +1087,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1101,91 +1104,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,6 +1128,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1215,7 +1176,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,13 +1260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,43 +1278,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,8 +1340,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1346,8 +1349,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1367,15 +1400,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1391,32 +1415,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1436,152 +1439,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1628,9 +1631,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1960,8 +1960,8 @@
   <sheetPr/>
   <dimension ref="A1:ED4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DZ1" workbookViewId="0">
-      <selection activeCell="ED4" sqref="ED4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -2266,16 +2266,16 @@
       <c r="DT1" s="15"/>
       <c r="DU1" s="15"/>
       <c r="DV1" s="15"/>
-      <c r="DW1" s="16" t="s">
+      <c r="DW1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="DX1" s="16"/>
-      <c r="DY1" s="16"/>
-      <c r="DZ1" s="16"/>
-      <c r="EA1" s="16"/>
-      <c r="EB1" s="16"/>
-      <c r="EC1" s="16"/>
-      <c r="ED1" s="16"/>
+      <c r="DX1" s="7"/>
+      <c r="DY1" s="7"/>
+      <c r="DZ1" s="7"/>
+      <c r="EA1" s="7"/>
+      <c r="EB1" s="7"/>
+      <c r="EC1" s="7"/>
+      <c r="ED1" s="7"/>
     </row>
     <row r="2" ht="37" customHeight="1" spans="1:134">
       <c r="A2" s="7"/>
@@ -2813,402 +2813,404 @@
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>151</v>
+      </c>
       <c r="C4" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="BE4" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BO4" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BU4" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BX4" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BY4" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="CB4" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="CC4" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="CD4" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="CE4" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CF4" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CG4" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="CI4" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="CJ4" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="CL4" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="CM4" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CN4" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CO4" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CP4" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="CQ4" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CS4" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="CU4" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CV4" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="CW4" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CX4" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CY4" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="CZ4" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="DA4" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="DB4" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="DC4" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="DD4" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="DE4" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="DF4" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DG4" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DH4" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DI4" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="DK4" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="DL4" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DM4" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="DN4" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DO4" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="DP4" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="DQ4" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="DR4" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="DS4" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="DT4" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="DU4" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="DV4" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="DW4" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="DX4" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="DY4" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="DZ4" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="EA4" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="EB4" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="EC4" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="ED4" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportUniversitySchoolTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportUniversitySchoolTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="14040"/>
+    <workbookView windowWidth="27900" windowHeight="12120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -918,10 +918,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -945,7 +945,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,16 +958,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -981,11 +988,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1007,6 +1021,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1014,29 +1074,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1056,44 +1094,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1104,7 +1104,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,25 +1140,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,31 +1248,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,13 +1266,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,85 +1284,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,8 +1340,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1349,8 +1349,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1366,6 +1366,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1386,21 +1406,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1415,22 +1420,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1439,162 +1439,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1603,35 +1594,41 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1961,7 +1958,7 @@
   <dimension ref="A1:ED4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -2108,7 +2105,7 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -2253,19 +2250,19 @@
       <c r="DI1" s="7"/>
       <c r="DJ1" s="7"/>
       <c r="DK1" s="7"/>
-      <c r="DL1" s="14" t="s">
+      <c r="DL1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="DM1" s="15"/>
-      <c r="DN1" s="15"/>
-      <c r="DO1" s="15"/>
-      <c r="DP1" s="15"/>
-      <c r="DQ1" s="15"/>
-      <c r="DR1" s="15"/>
-      <c r="DS1" s="15"/>
-      <c r="DT1" s="15"/>
-      <c r="DU1" s="15"/>
-      <c r="DV1" s="15"/>
+      <c r="DM1" s="14"/>
+      <c r="DN1" s="14"/>
+      <c r="DO1" s="14"/>
+      <c r="DP1" s="14"/>
+      <c r="DQ1" s="14"/>
+      <c r="DR1" s="14"/>
+      <c r="DS1" s="14"/>
+      <c r="DT1" s="14"/>
+      <c r="DU1" s="14"/>
+      <c r="DV1" s="14"/>
       <c r="DW1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2280,7 +2277,7 @@
     <row r="2" ht="37" customHeight="1" spans="1:134">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -2301,52 +2298,52 @@
       <c r="M2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="7" t="s">
         <v>40</v>
       </c>
       <c r="AD2" s="7" t="s">
@@ -2358,13 +2355,13 @@
       <c r="AH2" s="7"/>
       <c r="AI2" s="7"/>
       <c r="AJ2" s="7"/>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AL2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="AN2" s="7" t="s">
@@ -2373,55 +2370,55 @@
       <c r="AO2" s="7"/>
       <c r="AP2" s="7"/>
       <c r="AQ2" s="7"/>
-      <c r="AR2" s="8" t="s">
+      <c r="AR2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AS2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AT2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AU2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AV2" s="8" t="s">
+      <c r="AV2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AW2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AX2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AY2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AZ2" s="8" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BA2" s="8" t="s">
+      <c r="BA2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BB2" s="8" t="s">
+      <c r="BB2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BC2" s="8" t="s">
+      <c r="BC2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BD2" s="8" t="s">
+      <c r="BD2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BE2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BF2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BG2" s="8" t="s">
+      <c r="BG2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BH2" s="8" t="s">
+      <c r="BH2" s="7" t="s">
         <v>62</v>
       </c>
       <c r="BI2" s="7" t="s">
@@ -2435,168 +2432,168 @@
       <c r="BO2" s="7"/>
       <c r="BP2" s="7"/>
       <c r="BQ2" s="7"/>
-      <c r="BR2" s="8" t="s">
+      <c r="BR2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="BS2" s="8" t="s">
+      <c r="BS2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="BT2" s="8" t="s">
+      <c r="BT2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="BU2" s="8" t="s">
+      <c r="BU2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BV2" s="8" t="s">
+      <c r="BV2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BW2" s="8" t="s">
+      <c r="BW2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BX2" s="8" t="s">
+      <c r="BX2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="BY2" s="8" t="s">
+      <c r="BY2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="BZ2" s="8" t="s">
+      <c r="BZ2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="CA2" s="8" t="s">
+      <c r="CA2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="CB2" s="8" t="s">
+      <c r="CB2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="CC2" s="8" t="s">
+      <c r="CC2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="CD2" s="8" t="s">
+      <c r="CD2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="CE2" s="8" t="s">
+      <c r="CE2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="CF2" s="8" t="s">
+      <c r="CF2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="CG2" s="8" t="s">
+      <c r="CG2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="CH2" s="8" t="s">
+      <c r="CH2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="CI2" s="8" t="s">
+      <c r="CI2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="CJ2" s="8" t="s">
+      <c r="CJ2" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="CK2" s="8" t="s">
+      <c r="CK2" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="CL2" s="8" t="s">
+      <c r="CL2" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="CM2" s="8" t="s">
+      <c r="CM2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="CN2" s="8" t="s">
+      <c r="CN2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CO2" s="8" t="s">
+      <c r="CO2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CP2" s="8" t="s">
+      <c r="CP2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="CQ2" s="8" t="s">
+      <c r="CQ2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="CR2" s="8"/>
-      <c r="CS2" s="8"/>
-      <c r="CT2" s="8"/>
-      <c r="CU2" s="8"/>
-      <c r="CV2" s="8"/>
-      <c r="CW2" s="8"/>
-      <c r="CX2" s="8"/>
-      <c r="CY2" s="8"/>
-      <c r="CZ2" s="8"/>
-      <c r="DA2" s="8"/>
-      <c r="DB2" s="8"/>
-      <c r="DC2" s="8"/>
-      <c r="DD2" s="8"/>
-      <c r="DE2" s="8"/>
-      <c r="DF2" s="8"/>
-      <c r="DG2" s="8"/>
-      <c r="DH2" s="8"/>
-      <c r="DI2" s="8"/>
-      <c r="DJ2" s="8"/>
-      <c r="DK2" s="8" t="s">
+      <c r="CR2" s="7"/>
+      <c r="CS2" s="7"/>
+      <c r="CT2" s="7"/>
+      <c r="CU2" s="7"/>
+      <c r="CV2" s="7"/>
+      <c r="CW2" s="7"/>
+      <c r="CX2" s="7"/>
+      <c r="CY2" s="7"/>
+      <c r="CZ2" s="7"/>
+      <c r="DA2" s="7"/>
+      <c r="DB2" s="7"/>
+      <c r="DC2" s="7"/>
+      <c r="DD2" s="7"/>
+      <c r="DE2" s="7"/>
+      <c r="DF2" s="7"/>
+      <c r="DG2" s="7"/>
+      <c r="DH2" s="7"/>
+      <c r="DI2" s="7"/>
+      <c r="DJ2" s="7"/>
+      <c r="DK2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="DL2" s="8" t="s">
+      <c r="DL2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="DM2" s="8" t="s">
+      <c r="DM2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="DN2" s="8" t="s">
+      <c r="DN2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="DO2" s="8" t="s">
+      <c r="DO2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="DP2" s="8" t="s">
+      <c r="DP2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="DQ2" s="8" t="s">
+      <c r="DQ2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="DR2" s="8" t="s">
+      <c r="DR2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="DS2" s="8" t="s">
+      <c r="DS2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="DT2" s="8" t="s">
+      <c r="DT2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="DU2" s="8" t="s">
+      <c r="DU2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="DV2" s="8" t="s">
+      <c r="DV2" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="DW2" s="8" t="s">
+      <c r="DW2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="DX2" s="8" t="s">
+      <c r="DX2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="DY2" s="8" t="s">
+      <c r="DY2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="DZ2" s="8" t="s">
+      <c r="DZ2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="EA2" s="8" t="s">
+      <c r="EA2" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="EB2" s="8" t="s">
+      <c r="EB2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="EC2" s="8" t="s">
+      <c r="EC2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="ED2" s="8" t="s">
+      <c r="ED2" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" ht="96" customHeight="1" spans="1:134">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -2607,258 +2604,258 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="13" t="s">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AE3" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AF3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AG3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="AH3" s="13" t="s">
+      <c r="AH3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="AI3" s="13" t="s">
+      <c r="AI3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8" t="s">
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="AO3" s="8" t="s">
+      <c r="AO3" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="AP3" s="8" t="s">
+      <c r="AP3" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="AQ3" s="8" t="s">
+      <c r="AQ3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="8"/>
-      <c r="AT3" s="8"/>
-      <c r="AU3" s="8"/>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="8"/>
-      <c r="BI3" s="13" t="s">
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="7"/>
+      <c r="BF3" s="7"/>
+      <c r="BG3" s="7"/>
+      <c r="BH3" s="7"/>
+      <c r="BI3" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="BJ3" s="13" t="s">
+      <c r="BJ3" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="BK3" s="13" t="s">
+      <c r="BK3" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="BL3" s="13" t="s">
+      <c r="BL3" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="BM3" s="13" t="s">
+      <c r="BM3" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="BN3" s="13" t="s">
+      <c r="BN3" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="BO3" s="13" t="s">
+      <c r="BO3" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="BP3" s="13" t="s">
+      <c r="BP3" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="BQ3" s="13" t="s">
+      <c r="BQ3" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="BR3" s="8"/>
-      <c r="BS3" s="8"/>
-      <c r="BT3" s="8"/>
-      <c r="BU3" s="8"/>
-      <c r="BV3" s="8"/>
-      <c r="BW3" s="8"/>
-      <c r="BX3" s="8"/>
-      <c r="BY3" s="8"/>
-      <c r="BZ3" s="8"/>
-      <c r="CA3" s="8"/>
-      <c r="CB3" s="8"/>
-      <c r="CC3" s="8"/>
-      <c r="CD3" s="8"/>
-      <c r="CE3" s="8"/>
-      <c r="CF3" s="8"/>
-      <c r="CG3" s="8"/>
-      <c r="CH3" s="8"/>
-      <c r="CI3" s="8"/>
-      <c r="CJ3" s="8"/>
-      <c r="CK3" s="8"/>
-      <c r="CL3" s="8"/>
-      <c r="CM3" s="8"/>
-      <c r="CN3" s="8"/>
-      <c r="CO3" s="8"/>
-      <c r="CP3" s="8"/>
-      <c r="CQ3" s="13" t="s">
+      <c r="BR3" s="7"/>
+      <c r="BS3" s="7"/>
+      <c r="BT3" s="7"/>
+      <c r="BU3" s="7"/>
+      <c r="BV3" s="7"/>
+      <c r="BW3" s="7"/>
+      <c r="BX3" s="7"/>
+      <c r="BY3" s="7"/>
+      <c r="BZ3" s="7"/>
+      <c r="CA3" s="7"/>
+      <c r="CB3" s="7"/>
+      <c r="CC3" s="7"/>
+      <c r="CD3" s="7"/>
+      <c r="CE3" s="7"/>
+      <c r="CF3" s="7"/>
+      <c r="CG3" s="7"/>
+      <c r="CH3" s="7"/>
+      <c r="CI3" s="7"/>
+      <c r="CJ3" s="7"/>
+      <c r="CK3" s="7"/>
+      <c r="CL3" s="7"/>
+      <c r="CM3" s="7"/>
+      <c r="CN3" s="7"/>
+      <c r="CO3" s="7"/>
+      <c r="CP3" s="7"/>
+      <c r="CQ3" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="CR3" s="13" t="s">
+      <c r="CR3" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="CS3" s="13" t="s">
+      <c r="CS3" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="CT3" s="13" t="s">
+      <c r="CT3" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="CU3" s="13" t="s">
+      <c r="CU3" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="CV3" s="13" t="s">
+      <c r="CV3" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="CW3" s="13" t="s">
+      <c r="CW3" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="CX3" s="13" t="s">
+      <c r="CX3" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="CY3" s="13" t="s">
+      <c r="CY3" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="CZ3" s="13" t="s">
+      <c r="CZ3" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="DA3" s="13" t="s">
+      <c r="DA3" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="DB3" s="13" t="s">
+      <c r="DB3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="DC3" s="13" t="s">
+      <c r="DC3" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="DD3" s="13" t="s">
+      <c r="DD3" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="DE3" s="13" t="s">
+      <c r="DE3" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="DF3" s="13" t="s">
+      <c r="DF3" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="DG3" s="13" t="s">
+      <c r="DG3" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="DH3" s="13" t="s">
+      <c r="DH3" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="DI3" s="13" t="s">
+      <c r="DI3" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="DJ3" s="13" t="s">
+      <c r="DJ3" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="DK3" s="8"/>
-      <c r="DL3" s="8"/>
-      <c r="DM3" s="8"/>
-      <c r="DN3" s="8"/>
-      <c r="DO3" s="8"/>
-      <c r="DP3" s="8"/>
-      <c r="DQ3" s="8"/>
-      <c r="DR3" s="8"/>
-      <c r="DS3" s="8"/>
-      <c r="DT3" s="8"/>
-      <c r="DU3" s="8"/>
-      <c r="DV3" s="8"/>
-      <c r="DW3" s="8"/>
-      <c r="DX3" s="8"/>
-      <c r="DY3" s="8"/>
-      <c r="DZ3" s="8"/>
-      <c r="EA3" s="8"/>
-      <c r="EB3" s="8"/>
-      <c r="EC3" s="8"/>
-      <c r="ED3" s="8"/>
+      <c r="DK3" s="7"/>
+      <c r="DL3" s="7"/>
+      <c r="DM3" s="7"/>
+      <c r="DN3" s="7"/>
+      <c r="DO3" s="7"/>
+      <c r="DP3" s="7"/>
+      <c r="DQ3" s="7"/>
+      <c r="DR3" s="7"/>
+      <c r="DS3" s="7"/>
+      <c r="DT3" s="7"/>
+      <c r="DU3" s="7"/>
+      <c r="DV3" s="7"/>
+      <c r="DW3" s="7"/>
+      <c r="DX3" s="7"/>
+      <c r="DY3" s="7"/>
+      <c r="DZ3" s="7"/>
+      <c r="EA3" s="7"/>
+      <c r="EB3" s="7"/>
+      <c r="EC3" s="7"/>
+      <c r="ED3" s="7"/>
     </row>
     <row r="4" ht="18" spans="1:134">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>166</v>
       </c>
       <c r="R4" s="1" t="s">

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportUniversitySchoolTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportUniversitySchoolTemplate.xlsx
@@ -916,12 +916,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -958,10 +957,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -974,9 +989,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -996,69 +1018,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1073,8 +1034,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,9 +1071,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,7 +1103,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,7 +1145,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,13 +1157,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,67 +1199,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,25 +1223,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,13 +1235,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,19 +1271,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,37 +1354,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1400,6 +1388,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1420,17 +1423,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1439,195 +1438,174 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1964,20 +1942,20 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="14.6083333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7166666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.6" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.7166666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.1" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.6" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.025" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.825" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.3083333333333" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.2666666666667" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.4" style="6" customWidth="1"/>
-    <col min="13" max="13" width="14.9666666666667" style="4" customWidth="1"/>
-    <col min="14" max="14" width="19.8" style="4" customWidth="1"/>
-    <col min="15" max="15" width="17.5083333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.825" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3083333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.2666666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.4" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.9666666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.8" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5083333333333" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.0916666666667" style="1" customWidth="1"/>
     <col min="17" max="17" width="22.225" style="1" customWidth="1"/>
     <col min="18" max="18" width="22.7083333333333" style="1" customWidth="1"/>
@@ -2099,763 +2077,763 @@
   </cols>
   <sheetData>
     <row r="1" ht="44" customHeight="1" spans="1:134">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7" t="s">
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7" t="s">
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="7" t="s">
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BH1" s="7"/>
-      <c r="BI1" s="7"/>
-      <c r="BJ1" s="7"/>
-      <c r="BK1" s="7"/>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="7"/>
-      <c r="BN1" s="7"/>
-      <c r="BO1" s="7"/>
-      <c r="BP1" s="7"/>
-      <c r="BQ1" s="7"/>
-      <c r="BR1" s="7" t="s">
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
+      <c r="BR1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BS1" s="7"/>
-      <c r="BT1" s="7"/>
-      <c r="BU1" s="7"/>
-      <c r="BV1" s="7"/>
-      <c r="BW1" s="7" t="s">
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3"/>
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BX1" s="7"/>
-      <c r="BY1" s="7"/>
-      <c r="BZ1" s="7"/>
-      <c r="CA1" s="7"/>
-      <c r="CB1" s="7"/>
-      <c r="CC1" s="7" t="s">
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3"/>
+      <c r="CA1" s="3"/>
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="CD1" s="7"/>
-      <c r="CE1" s="7"/>
-      <c r="CF1" s="7"/>
-      <c r="CG1" s="7"/>
-      <c r="CH1" s="7" t="s">
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3"/>
+      <c r="CG1" s="3"/>
+      <c r="CH1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="CI1" s="7"/>
-      <c r="CJ1" s="7"/>
-      <c r="CK1" s="7"/>
-      <c r="CL1" s="7"/>
-      <c r="CM1" s="7"/>
-      <c r="CN1" s="7"/>
-      <c r="CO1" s="7"/>
-      <c r="CP1" s="7"/>
-      <c r="CQ1" s="7" t="s">
+      <c r="CI1" s="3"/>
+      <c r="CJ1" s="3"/>
+      <c r="CK1" s="3"/>
+      <c r="CL1" s="3"/>
+      <c r="CM1" s="3"/>
+      <c r="CN1" s="3"/>
+      <c r="CO1" s="3"/>
+      <c r="CP1" s="3"/>
+      <c r="CQ1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="CR1" s="7"/>
-      <c r="CS1" s="7"/>
-      <c r="CT1" s="7"/>
-      <c r="CU1" s="7"/>
-      <c r="CV1" s="7"/>
-      <c r="CW1" s="7"/>
-      <c r="CX1" s="7"/>
-      <c r="CY1" s="7"/>
-      <c r="CZ1" s="7"/>
-      <c r="DA1" s="7"/>
-      <c r="DB1" s="7"/>
-      <c r="DC1" s="7"/>
-      <c r="DD1" s="7"/>
-      <c r="DE1" s="7"/>
-      <c r="DF1" s="7"/>
-      <c r="DG1" s="7"/>
-      <c r="DH1" s="7"/>
-      <c r="DI1" s="7"/>
-      <c r="DJ1" s="7"/>
-      <c r="DK1" s="7"/>
-      <c r="DL1" s="13" t="s">
+      <c r="CR1" s="3"/>
+      <c r="CS1" s="3"/>
+      <c r="CT1" s="3"/>
+      <c r="CU1" s="3"/>
+      <c r="CV1" s="3"/>
+      <c r="CW1" s="3"/>
+      <c r="CX1" s="3"/>
+      <c r="CY1" s="3"/>
+      <c r="CZ1" s="3"/>
+      <c r="DA1" s="3"/>
+      <c r="DB1" s="3"/>
+      <c r="DC1" s="3"/>
+      <c r="DD1" s="3"/>
+      <c r="DE1" s="3"/>
+      <c r="DF1" s="3"/>
+      <c r="DG1" s="3"/>
+      <c r="DH1" s="3"/>
+      <c r="DI1" s="3"/>
+      <c r="DJ1" s="3"/>
+      <c r="DK1" s="3"/>
+      <c r="DL1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="DM1" s="14"/>
-      <c r="DN1" s="14"/>
-      <c r="DO1" s="14"/>
-      <c r="DP1" s="14"/>
-      <c r="DQ1" s="14"/>
-      <c r="DR1" s="14"/>
-      <c r="DS1" s="14"/>
-      <c r="DT1" s="14"/>
-      <c r="DU1" s="14"/>
-      <c r="DV1" s="14"/>
-      <c r="DW1" s="7" t="s">
+      <c r="DM1" s="7"/>
+      <c r="DN1" s="7"/>
+      <c r="DO1" s="7"/>
+      <c r="DP1" s="7"/>
+      <c r="DQ1" s="7"/>
+      <c r="DR1" s="7"/>
+      <c r="DS1" s="7"/>
+      <c r="DT1" s="7"/>
+      <c r="DU1" s="7"/>
+      <c r="DV1" s="7"/>
+      <c r="DW1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="DX1" s="7"/>
-      <c r="DY1" s="7"/>
-      <c r="DZ1" s="7"/>
-      <c r="EA1" s="7"/>
-      <c r="EB1" s="7"/>
-      <c r="EC1" s="7"/>
-      <c r="ED1" s="7"/>
+      <c r="DX1" s="3"/>
+      <c r="DY1" s="3"/>
+      <c r="DZ1" s="3"/>
+      <c r="EA1" s="3"/>
+      <c r="EB1" s="3"/>
+      <c r="EC1" s="3"/>
+      <c r="ED1" s="3"/>
     </row>
     <row r="2" ht="37" customHeight="1" spans="1:134">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7" t="s">
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AL2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AM2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AN2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7" t="s">
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AS2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AT2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AU2" s="7" t="s">
+      <c r="AU2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AV2" s="7" t="s">
+      <c r="AV2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AW2" s="7" t="s">
+      <c r="AW2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AX2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AY2" s="7" t="s">
+      <c r="AY2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AZ2" s="7" t="s">
+      <c r="AZ2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BA2" s="7" t="s">
+      <c r="BA2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BB2" s="7" t="s">
+      <c r="BB2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BC2" s="7" t="s">
+      <c r="BC2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BD2" s="7" t="s">
+      <c r="BD2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BE2" s="7" t="s">
+      <c r="BE2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BF2" s="7" t="s">
+      <c r="BF2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BG2" s="7" t="s">
+      <c r="BG2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BH2" s="7" t="s">
+      <c r="BH2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BI2" s="7" t="s">
+      <c r="BI2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BJ2" s="7"/>
-      <c r="BK2" s="7"/>
-      <c r="BL2" s="7"/>
-      <c r="BM2" s="7"/>
-      <c r="BN2" s="7"/>
-      <c r="BO2" s="7"/>
-      <c r="BP2" s="7"/>
-      <c r="BQ2" s="7"/>
-      <c r="BR2" s="7" t="s">
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
+      <c r="BR2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BS2" s="7" t="s">
+      <c r="BS2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BT2" s="7" t="s">
+      <c r="BT2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BU2" s="7" t="s">
+      <c r="BU2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BV2" s="7" t="s">
+      <c r="BV2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BW2" s="7" t="s">
+      <c r="BW2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BX2" s="7" t="s">
+      <c r="BX2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BY2" s="7" t="s">
+      <c r="BY2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BZ2" s="7" t="s">
+      <c r="BZ2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="CA2" s="7" t="s">
+      <c r="CA2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="CB2" s="7" t="s">
+      <c r="CB2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="CC2" s="7" t="s">
+      <c r="CC2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="CD2" s="7" t="s">
+      <c r="CD2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="CE2" s="7" t="s">
+      <c r="CE2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="CF2" s="7" t="s">
+      <c r="CF2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="CG2" s="7" t="s">
+      <c r="CG2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="CH2" s="7" t="s">
+      <c r="CH2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CI2" s="7" t="s">
+      <c r="CI2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CJ2" s="7" t="s">
+      <c r="CJ2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="CK2" s="7" t="s">
+      <c r="CK2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="CL2" s="7" t="s">
+      <c r="CL2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="CM2" s="7" t="s">
+      <c r="CM2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="CN2" s="7" t="s">
+      <c r="CN2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="CO2" s="7" t="s">
+      <c r="CO2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="CP2" s="7" t="s">
+      <c r="CP2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="CQ2" s="7" t="s">
+      <c r="CQ2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="CR2" s="7"/>
-      <c r="CS2" s="7"/>
-      <c r="CT2" s="7"/>
-      <c r="CU2" s="7"/>
-      <c r="CV2" s="7"/>
-      <c r="CW2" s="7"/>
-      <c r="CX2" s="7"/>
-      <c r="CY2" s="7"/>
-      <c r="CZ2" s="7"/>
-      <c r="DA2" s="7"/>
-      <c r="DB2" s="7"/>
-      <c r="DC2" s="7"/>
-      <c r="DD2" s="7"/>
-      <c r="DE2" s="7"/>
-      <c r="DF2" s="7"/>
-      <c r="DG2" s="7"/>
-      <c r="DH2" s="7"/>
-      <c r="DI2" s="7"/>
-      <c r="DJ2" s="7"/>
-      <c r="DK2" s="7" t="s">
+      <c r="CR2" s="3"/>
+      <c r="CS2" s="3"/>
+      <c r="CT2" s="3"/>
+      <c r="CU2" s="3"/>
+      <c r="CV2" s="3"/>
+      <c r="CW2" s="3"/>
+      <c r="CX2" s="3"/>
+      <c r="CY2" s="3"/>
+      <c r="CZ2" s="3"/>
+      <c r="DA2" s="3"/>
+      <c r="DB2" s="3"/>
+      <c r="DC2" s="3"/>
+      <c r="DD2" s="3"/>
+      <c r="DE2" s="3"/>
+      <c r="DF2" s="3"/>
+      <c r="DG2" s="3"/>
+      <c r="DH2" s="3"/>
+      <c r="DI2" s="3"/>
+      <c r="DJ2" s="3"/>
+      <c r="DK2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="DL2" s="7" t="s">
+      <c r="DL2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="DM2" s="7" t="s">
+      <c r="DM2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="DN2" s="7" t="s">
+      <c r="DN2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="DO2" s="7" t="s">
+      <c r="DO2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="DP2" s="7" t="s">
+      <c r="DP2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="DQ2" s="7" t="s">
+      <c r="DQ2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="DR2" s="7" t="s">
+      <c r="DR2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="DS2" s="7" t="s">
+      <c r="DS2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="DT2" s="7" t="s">
+      <c r="DT2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="DU2" s="7" t="s">
+      <c r="DU2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="DV2" s="7" t="s">
+      <c r="DV2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="DW2" s="7" t="s">
+      <c r="DW2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="DX2" s="7" t="s">
+      <c r="DX2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="DY2" s="7" t="s">
+      <c r="DY2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="DZ2" s="7" t="s">
+      <c r="DZ2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="EA2" s="7" t="s">
+      <c r="EA2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="EB2" s="7" t="s">
+      <c r="EB2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="EC2" s="7" t="s">
+      <c r="EC2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="ED2" s="7" t="s">
+      <c r="ED2" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="3" ht="96" customHeight="1" spans="1:134">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="12" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AE3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AF3" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AG3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AH3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AI3" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7" t="s">
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AO3" s="7" t="s">
+      <c r="AO3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AP3" s="7" t="s">
+      <c r="AP3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="AQ3" s="7" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="7"/>
-      <c r="BB3" s="7"/>
-      <c r="BC3" s="7"/>
-      <c r="BD3" s="7"/>
-      <c r="BE3" s="7"/>
-      <c r="BF3" s="7"/>
-      <c r="BG3" s="7"/>
-      <c r="BH3" s="7"/>
-      <c r="BI3" s="12" t="s">
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="BJ3" s="12" t="s">
+      <c r="BJ3" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="BK3" s="12" t="s">
+      <c r="BK3" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="BL3" s="12" t="s">
+      <c r="BL3" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="BM3" s="12" t="s">
+      <c r="BM3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="BN3" s="12" t="s">
+      <c r="BN3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="BO3" s="12" t="s">
+      <c r="BO3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="BP3" s="12" t="s">
+      <c r="BP3" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BQ3" s="12" t="s">
+      <c r="BQ3" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="BR3" s="7"/>
-      <c r="BS3" s="7"/>
-      <c r="BT3" s="7"/>
-      <c r="BU3" s="7"/>
-      <c r="BV3" s="7"/>
-      <c r="BW3" s="7"/>
-      <c r="BX3" s="7"/>
-      <c r="BY3" s="7"/>
-      <c r="BZ3" s="7"/>
-      <c r="CA3" s="7"/>
-      <c r="CB3" s="7"/>
-      <c r="CC3" s="7"/>
-      <c r="CD3" s="7"/>
-      <c r="CE3" s="7"/>
-      <c r="CF3" s="7"/>
-      <c r="CG3" s="7"/>
-      <c r="CH3" s="7"/>
-      <c r="CI3" s="7"/>
-      <c r="CJ3" s="7"/>
-      <c r="CK3" s="7"/>
-      <c r="CL3" s="7"/>
-      <c r="CM3" s="7"/>
-      <c r="CN3" s="7"/>
-      <c r="CO3" s="7"/>
-      <c r="CP3" s="7"/>
-      <c r="CQ3" s="12" t="s">
+      <c r="BR3" s="3"/>
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="3"/>
+      <c r="BU3" s="3"/>
+      <c r="BV3" s="3"/>
+      <c r="BW3" s="3"/>
+      <c r="BX3" s="3"/>
+      <c r="BY3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3"/>
+      <c r="CC3" s="3"/>
+      <c r="CD3" s="3"/>
+      <c r="CE3" s="3"/>
+      <c r="CF3" s="3"/>
+      <c r="CG3" s="3"/>
+      <c r="CH3" s="3"/>
+      <c r="CI3" s="3"/>
+      <c r="CJ3" s="3"/>
+      <c r="CK3" s="3"/>
+      <c r="CL3" s="3"/>
+      <c r="CM3" s="3"/>
+      <c r="CN3" s="3"/>
+      <c r="CO3" s="3"/>
+      <c r="CP3" s="3"/>
+      <c r="CQ3" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="CR3" s="12" t="s">
+      <c r="CR3" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="CS3" s="12" t="s">
+      <c r="CS3" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="CT3" s="12" t="s">
+      <c r="CT3" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="CU3" s="12" t="s">
+      <c r="CU3" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="CV3" s="12" t="s">
+      <c r="CV3" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="CW3" s="12" t="s">
+      <c r="CW3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="CX3" s="12" t="s">
+      <c r="CX3" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="CY3" s="12" t="s">
+      <c r="CY3" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="CZ3" s="12" t="s">
+      <c r="CZ3" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="DA3" s="12" t="s">
+      <c r="DA3" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="DB3" s="12" t="s">
+      <c r="DB3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="DC3" s="12" t="s">
+      <c r="DC3" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="DD3" s="12" t="s">
+      <c r="DD3" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="DE3" s="12" t="s">
+      <c r="DE3" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="DF3" s="12" t="s">
+      <c r="DF3" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="DG3" s="12" t="s">
+      <c r="DG3" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="DH3" s="12" t="s">
+      <c r="DH3" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="DI3" s="12" t="s">
+      <c r="DI3" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="DJ3" s="12" t="s">
+      <c r="DJ3" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="DK3" s="7"/>
-      <c r="DL3" s="7"/>
-      <c r="DM3" s="7"/>
-      <c r="DN3" s="7"/>
-      <c r="DO3" s="7"/>
-      <c r="DP3" s="7"/>
-      <c r="DQ3" s="7"/>
-      <c r="DR3" s="7"/>
-      <c r="DS3" s="7"/>
-      <c r="DT3" s="7"/>
-      <c r="DU3" s="7"/>
-      <c r="DV3" s="7"/>
-      <c r="DW3" s="7"/>
-      <c r="DX3" s="7"/>
-      <c r="DY3" s="7"/>
-      <c r="DZ3" s="7"/>
-      <c r="EA3" s="7"/>
-      <c r="EB3" s="7"/>
-      <c r="EC3" s="7"/>
-      <c r="ED3" s="7"/>
+      <c r="DK3" s="3"/>
+      <c r="DL3" s="3"/>
+      <c r="DM3" s="3"/>
+      <c r="DN3" s="3"/>
+      <c r="DO3" s="3"/>
+      <c r="DP3" s="3"/>
+      <c r="DQ3" s="3"/>
+      <c r="DR3" s="3"/>
+      <c r="DS3" s="3"/>
+      <c r="DT3" s="3"/>
+      <c r="DU3" s="3"/>
+      <c r="DV3" s="3"/>
+      <c r="DW3" s="3"/>
+      <c r="DX3" s="3"/>
+      <c r="DY3" s="3"/>
+      <c r="DZ3" s="3"/>
+      <c r="EA3" s="3"/>
+      <c r="EB3" s="3"/>
+      <c r="EC3" s="3"/>
+      <c r="ED3" s="3"/>
     </row>
     <row r="4" ht="18" spans="1:134">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="4" t="s">
         <v>166</v>
       </c>
       <c r="R4" s="1" t="s">

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportUniversitySchoolTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportUniversitySchoolTemplate.xlsx
@@ -729,7 +729,7 @@
     <t>{.h05a}</t>
   </si>
   <si>
-    <t>{.d031}</t>
+    <t>{.d031}小时{.d032}分钟</t>
   </si>
   <si>
     <t>{.h06c}</t>
@@ -957,9 +957,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -969,36 +968,6 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1026,17 +995,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1049,8 +1016,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1064,6 +1040,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -1071,24 +1086,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,19 +1103,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,7 +1151,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,91 +1223,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,13 +1241,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,31 +1265,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,60 +1354,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1433,150 +1379,204 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1935,8 +1935,8 @@
   <sheetPr/>
   <dimension ref="A1:ED4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
+      <selection activeCell="BV6" sqref="BV6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -2784,7 +2784,7 @@
       <c r="EC3" s="3"/>
       <c r="ED3" s="3"/>
     </row>
-    <row r="4" ht="18" spans="1:134">
+    <row r="4" ht="36" spans="1:134">
       <c r="A4" s="4" t="s">
         <v>150</v>
       </c>

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportUniversitySchoolTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportUniversitySchoolTemplate.xlsx
@@ -687,7 +687,7 @@
     <t>{.d02}</t>
   </si>
   <si>
-    <t>{.d021}</t>
+    <t>{.d021}小时{.d022}分钟</t>
   </si>
   <si>
     <t>{.d011}</t>
@@ -917,8 +917,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -944,14 +944,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -972,7 +980,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -995,22 +1003,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1024,6 +1019,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1032,7 +1042,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1040,24 +1056,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,24 +1080,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1109,6 +1109,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1121,25 +1127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1151,67 +1139,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,7 +1163,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,13 +1217,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,19 +1259,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,7 +1283,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,8 +1339,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1349,7 +1364,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1380,6 +1395,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1394,192 +1433,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1935,8 +1935,8 @@
   <sheetPr/>
   <dimension ref="A1:ED4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
-      <selection activeCell="BV6" sqref="BV6"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BI7" sqref="BI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportUniversitySchoolTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportUniversitySchoolTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="288">
   <si>
     <t>ID</t>
   </si>
@@ -260,7 +260,7 @@
     <t>H01你是否使用耳机（至少连续30分钟）</t>
   </si>
   <si>
-    <t>H02过去7天，你平均每天使用耳机时间</t>
+    <t>H02过去7天，你平均每天使用耳机时间（分钟）</t>
   </si>
   <si>
     <t>H03过去7天，你连续使用耳机超过60分钟的次数</t>
@@ -423,6 +423,12 @@
     <t>C064曾多次采取措施自杀</t>
   </si>
   <si>
+    <t>小时</t>
+  </si>
+  <si>
+    <t>分钟</t>
+  </si>
+  <si>
     <t>E021经常上网，即使不上网，脑中也一直浮现与网络有关的事情</t>
   </si>
   <si>
@@ -687,7 +693,10 @@
     <t>{.d02}</t>
   </si>
   <si>
-    <t>{.d021}小时{.d022}分钟</t>
+    <t>{.d021}</t>
+  </si>
+  <si>
+    <t>{.d022}</t>
   </si>
   <si>
     <t>{.d011}</t>
@@ -729,7 +738,10 @@
     <t>{.h05a}</t>
   </si>
   <si>
-    <t>{.d031}小时{.d032}分钟</t>
+    <t>{.d031}</t>
+  </si>
+  <si>
+    <t>{.d032}</t>
   </si>
   <si>
     <t>{.h06c}</t>
@@ -753,7 +765,7 @@
     <t>{.k01}</t>
   </si>
   <si>
-    <t>{.k02}分钟</t>
+    <t>{.k02}</t>
   </si>
   <si>
     <t>{.k03}</t>
@@ -917,10 +929,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -944,6 +956,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -951,15 +970,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -989,14 +1001,67 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1011,24 +1076,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1043,54 +1100,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1109,25 +1121,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,7 +1139,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,19 +1157,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,43 +1277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,66 +1289,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1326,7 +1338,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1338,74 +1352,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,6 +1384,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1441,82 +1466,82 @@
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1525,65 +1550,65 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1606,6 +1631,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1933,10 +1964,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:ED4"/>
+  <dimension ref="A1:EF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BI7" sqref="BI7"/>
+    <sheetView tabSelected="1" topLeftCell="BY1" workbookViewId="0">
+      <selection activeCell="CF4" sqref="CF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -1995,88 +2026,88 @@
     <col min="55" max="56" width="17.4" style="1" customWidth="1"/>
     <col min="57" max="57" width="16.7833333333333" style="1" customWidth="1"/>
     <col min="58" max="58" width="19.3166666666667" style="1" customWidth="1"/>
-    <col min="59" max="62" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="63" max="63" width="18.4" style="1" customWidth="1"/>
-    <col min="64" max="64" width="15.2083333333333" style="1" customWidth="1"/>
-    <col min="65" max="65" width="11.4666666666667" style="1" customWidth="1"/>
-    <col min="66" max="74" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="75" max="75" width="18.4" style="1" customWidth="1"/>
-    <col min="76" max="76" width="16.1833333333333" style="1" customWidth="1"/>
-    <col min="77" max="77" width="15.2" style="1" customWidth="1"/>
-    <col min="78" max="78" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="79" max="80" width="18.5333333333333" style="1" customWidth="1"/>
-    <col min="81" max="81" width="17.5333333333333" style="1" customWidth="1"/>
-    <col min="82" max="82" width="15.2166666666667" style="1" customWidth="1"/>
-    <col min="83" max="84" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="85" max="85" width="15.2" style="1" customWidth="1"/>
-    <col min="86" max="86" width="14.25" style="1" customWidth="1"/>
-    <col min="87" max="87" width="17.025" style="1" customWidth="1"/>
-    <col min="88" max="89" width="17.4" style="1" customWidth="1"/>
-    <col min="90" max="90" width="17.5166666666667" style="1" customWidth="1"/>
-    <col min="91" max="92" width="17.4" style="1" customWidth="1"/>
-    <col min="93" max="93" width="15.4583333333333" style="1" customWidth="1"/>
-    <col min="94" max="95" width="17.4" style="1" customWidth="1"/>
-    <col min="96" max="96" width="15.1" style="1" customWidth="1"/>
-    <col min="97" max="97" width="13.6416666666667" style="1" customWidth="1"/>
-    <col min="98" max="101" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="102" max="102" width="18.4" style="1" customWidth="1"/>
-    <col min="103" max="103" width="13.0416666666667" style="1" customWidth="1"/>
-    <col min="104" max="104" width="11.4666666666667" style="1" customWidth="1"/>
-    <col min="105" max="110" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="111" max="111" width="12.5583333333333" style="1" customWidth="1"/>
-    <col min="112" max="113" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="114" max="114" width="18.4" style="1" customWidth="1"/>
-    <col min="115" max="115" width="14.25" style="1" customWidth="1"/>
-    <col min="116" max="116" width="15.2" style="1" customWidth="1"/>
-    <col min="117" max="117" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="118" max="119" width="18.5333333333333" style="1" customWidth="1"/>
-    <col min="120" max="120" width="17.5333333333333" style="1" customWidth="1"/>
-    <col min="121" max="121" width="18.8416666666667" style="1" customWidth="1"/>
-    <col min="122" max="123" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="124" max="124" width="15.2" style="1" customWidth="1"/>
-    <col min="125" max="125" width="16.3083333333333" style="1" customWidth="1"/>
-    <col min="126" max="126" width="15.7" style="1" customWidth="1"/>
-    <col min="127" max="128" width="17.4" style="1" customWidth="1"/>
-    <col min="129" max="129" width="16.55" style="1" customWidth="1"/>
-    <col min="130" max="131" width="17.4" style="1" customWidth="1"/>
-    <col min="132" max="132" width="15.9416666666667" style="1" customWidth="1"/>
-    <col min="133" max="134" width="17.4" style="1" customWidth="1"/>
-    <col min="135" max="135" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="136" max="136" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="137" max="140" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="141" max="141" width="18.4" style="1" customWidth="1"/>
-    <col min="142" max="142" width="8" style="1" customWidth="1"/>
-    <col min="143" max="143" width="11.4666666666667" style="1" customWidth="1"/>
-    <col min="144" max="152" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="153" max="153" width="18.4" style="1" customWidth="1"/>
-    <col min="154" max="154" width="8" style="1" customWidth="1"/>
-    <col min="155" max="155" width="15.2" style="1" customWidth="1"/>
-    <col min="156" max="156" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="157" max="158" width="18.5333333333333" style="1" customWidth="1"/>
-    <col min="159" max="159" width="17.5333333333333" style="1" customWidth="1"/>
-    <col min="160" max="160" width="8" style="1" customWidth="1"/>
-    <col min="161" max="162" width="17.0666666666667" style="1" customWidth="1"/>
-    <col min="163" max="163" width="15.2" style="1" customWidth="1"/>
-    <col min="164" max="165" width="7.66666666666667" style="1" customWidth="1"/>
-    <col min="166" max="167" width="17.4" style="1" customWidth="1"/>
-    <col min="168" max="168" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="169" max="170" width="17.4" style="1" customWidth="1"/>
-    <col min="171" max="171" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="172" max="173" width="17.4" style="1" customWidth="1"/>
-    <col min="174" max="174" width="7.13333333333333" style="1" customWidth="1"/>
-    <col min="175" max="175" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="176" max="179" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="180" max="180" width="18.4" style="1" customWidth="1"/>
-    <col min="181" max="181" width="8" style="1" customWidth="1"/>
-    <col min="182" max="182" width="11.4666666666667" style="1" customWidth="1"/>
-    <col min="183" max="191" width="15.5333333333333" style="1" customWidth="1"/>
-    <col min="192" max="192" width="18.4" style="1" customWidth="1"/>
-    <col min="193" max="193" width="8" style="1" customWidth="1"/>
-    <col min="194" max="194" width="15.2" style="1" customWidth="1"/>
-    <col min="195" max="16384" width="11" style="1"/>
+    <col min="59" max="63" width="15.5333333333333" style="1" customWidth="1"/>
+    <col min="64" max="64" width="18.4" style="1" customWidth="1"/>
+    <col min="65" max="65" width="15.2083333333333" style="1" customWidth="1"/>
+    <col min="66" max="66" width="11.4666666666667" style="1" customWidth="1"/>
+    <col min="67" max="76" width="15.5333333333333" style="1" customWidth="1"/>
+    <col min="77" max="77" width="18.4" style="1" customWidth="1"/>
+    <col min="78" max="78" width="16.1833333333333" style="1" customWidth="1"/>
+    <col min="79" max="79" width="15.2" style="1" customWidth="1"/>
+    <col min="80" max="80" width="17.0666666666667" style="1" customWidth="1"/>
+    <col min="81" max="82" width="18.5333333333333" style="1" customWidth="1"/>
+    <col min="83" max="83" width="17.5333333333333" style="1" customWidth="1"/>
+    <col min="84" max="84" width="15.2166666666667" style="1" customWidth="1"/>
+    <col min="85" max="86" width="17.0666666666667" style="1" customWidth="1"/>
+    <col min="87" max="87" width="15.2" style="1" customWidth="1"/>
+    <col min="88" max="88" width="14.25" style="1" customWidth="1"/>
+    <col min="89" max="89" width="17.025" style="1" customWidth="1"/>
+    <col min="90" max="91" width="17.4" style="1" customWidth="1"/>
+    <col min="92" max="92" width="17.5166666666667" style="1" customWidth="1"/>
+    <col min="93" max="94" width="17.4" style="1" customWidth="1"/>
+    <col min="95" max="95" width="15.4583333333333" style="1" customWidth="1"/>
+    <col min="96" max="97" width="17.4" style="1" customWidth="1"/>
+    <col min="98" max="98" width="15.1" style="1" customWidth="1"/>
+    <col min="99" max="99" width="13.6416666666667" style="1" customWidth="1"/>
+    <col min="100" max="103" width="15.5333333333333" style="1" customWidth="1"/>
+    <col min="104" max="104" width="18.4" style="1" customWidth="1"/>
+    <col min="105" max="105" width="13.0416666666667" style="1" customWidth="1"/>
+    <col min="106" max="106" width="11.4666666666667" style="1" customWidth="1"/>
+    <col min="107" max="112" width="15.5333333333333" style="1" customWidth="1"/>
+    <col min="113" max="113" width="12.5583333333333" style="1" customWidth="1"/>
+    <col min="114" max="115" width="15.5333333333333" style="1" customWidth="1"/>
+    <col min="116" max="116" width="18.4" style="1" customWidth="1"/>
+    <col min="117" max="117" width="14.25" style="1" customWidth="1"/>
+    <col min="118" max="118" width="15.2" style="1" customWidth="1"/>
+    <col min="119" max="119" width="17.0666666666667" style="1" customWidth="1"/>
+    <col min="120" max="121" width="18.5333333333333" style="1" customWidth="1"/>
+    <col min="122" max="122" width="17.5333333333333" style="1" customWidth="1"/>
+    <col min="123" max="123" width="18.8416666666667" style="1" customWidth="1"/>
+    <col min="124" max="125" width="17.0666666666667" style="1" customWidth="1"/>
+    <col min="126" max="126" width="15.2" style="1" customWidth="1"/>
+    <col min="127" max="127" width="16.3083333333333" style="1" customWidth="1"/>
+    <col min="128" max="128" width="15.7" style="1" customWidth="1"/>
+    <col min="129" max="130" width="17.4" style="1" customWidth="1"/>
+    <col min="131" max="131" width="16.55" style="1" customWidth="1"/>
+    <col min="132" max="133" width="17.4" style="1" customWidth="1"/>
+    <col min="134" max="134" width="15.9416666666667" style="1" customWidth="1"/>
+    <col min="135" max="136" width="17.4" style="1" customWidth="1"/>
+    <col min="137" max="137" width="7.13333333333333" style="1" customWidth="1"/>
+    <col min="138" max="138" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="139" max="142" width="15.5333333333333" style="1" customWidth="1"/>
+    <col min="143" max="143" width="18.4" style="1" customWidth="1"/>
+    <col min="144" max="144" width="8" style="1" customWidth="1"/>
+    <col min="145" max="145" width="11.4666666666667" style="1" customWidth="1"/>
+    <col min="146" max="154" width="15.5333333333333" style="1" customWidth="1"/>
+    <col min="155" max="155" width="18.4" style="1" customWidth="1"/>
+    <col min="156" max="156" width="8" style="1" customWidth="1"/>
+    <col min="157" max="157" width="15.2" style="1" customWidth="1"/>
+    <col min="158" max="158" width="17.0666666666667" style="1" customWidth="1"/>
+    <col min="159" max="160" width="18.5333333333333" style="1" customWidth="1"/>
+    <col min="161" max="161" width="17.5333333333333" style="1" customWidth="1"/>
+    <col min="162" max="162" width="8" style="1" customWidth="1"/>
+    <col min="163" max="164" width="17.0666666666667" style="1" customWidth="1"/>
+    <col min="165" max="165" width="15.2" style="1" customWidth="1"/>
+    <col min="166" max="167" width="7.66666666666667" style="1" customWidth="1"/>
+    <col min="168" max="169" width="17.4" style="1" customWidth="1"/>
+    <col min="170" max="170" width="7.13333333333333" style="1" customWidth="1"/>
+    <col min="171" max="172" width="17.4" style="1" customWidth="1"/>
+    <col min="173" max="173" width="7.13333333333333" style="1" customWidth="1"/>
+    <col min="174" max="175" width="17.4" style="1" customWidth="1"/>
+    <col min="176" max="176" width="7.13333333333333" style="1" customWidth="1"/>
+    <col min="177" max="177" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="178" max="181" width="15.5333333333333" style="1" customWidth="1"/>
+    <col min="182" max="182" width="18.4" style="1" customWidth="1"/>
+    <col min="183" max="183" width="8" style="1" customWidth="1"/>
+    <col min="184" max="184" width="11.4666666666667" style="1" customWidth="1"/>
+    <col min="185" max="193" width="15.5333333333333" style="1" customWidth="1"/>
+    <col min="194" max="194" width="18.4" style="1" customWidth="1"/>
+    <col min="195" max="195" width="8" style="1" customWidth="1"/>
+    <col min="196" max="196" width="15.2" style="1" customWidth="1"/>
+    <col min="197" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="44" customHeight="1" spans="1:134">
+    <row r="1" ht="44" customHeight="1" spans="1:136">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2172,44 +2203,44 @@
       <c r="BO1" s="3"/>
       <c r="BP1" s="3"/>
       <c r="BQ1" s="3"/>
-      <c r="BR1" s="3" t="s">
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BS1" s="3"/>
       <c r="BT1" s="3"/>
       <c r="BU1" s="3"/>
       <c r="BV1" s="3"/>
-      <c r="BW1" s="3" t="s">
+      <c r="BW1" s="3"/>
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BX1" s="3"/>
-      <c r="BY1" s="3"/>
       <c r="BZ1" s="3"/>
       <c r="CA1" s="3"/>
       <c r="CB1" s="3"/>
-      <c r="CC1" s="3" t="s">
+      <c r="CC1" s="3"/>
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="CD1" s="3"/>
-      <c r="CE1" s="3"/>
       <c r="CF1" s="3"/>
       <c r="CG1" s="3"/>
-      <c r="CH1" s="3" t="s">
+      <c r="CH1" s="3"/>
+      <c r="CI1" s="3"/>
+      <c r="CJ1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="CI1" s="3"/>
-      <c r="CJ1" s="3"/>
       <c r="CK1" s="3"/>
       <c r="CL1" s="3"/>
       <c r="CM1" s="3"/>
       <c r="CN1" s="3"/>
       <c r="CO1" s="3"/>
       <c r="CP1" s="3"/>
-      <c r="CQ1" s="3" t="s">
+      <c r="CQ1" s="3"/>
+      <c r="CR1" s="3"/>
+      <c r="CS1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="CR1" s="3"/>
-      <c r="CS1" s="3"/>
       <c r="CT1" s="3"/>
       <c r="CU1" s="3"/>
       <c r="CV1" s="3"/>
@@ -2228,31 +2259,33 @@
       <c r="DI1" s="3"/>
       <c r="DJ1" s="3"/>
       <c r="DK1" s="3"/>
-      <c r="DL1" s="6" t="s">
+      <c r="DL1" s="3"/>
+      <c r="DM1" s="3"/>
+      <c r="DN1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="DM1" s="7"/>
-      <c r="DN1" s="7"/>
-      <c r="DO1" s="7"/>
-      <c r="DP1" s="7"/>
-      <c r="DQ1" s="7"/>
-      <c r="DR1" s="7"/>
-      <c r="DS1" s="7"/>
-      <c r="DT1" s="7"/>
-      <c r="DU1" s="7"/>
-      <c r="DV1" s="7"/>
-      <c r="DW1" s="3" t="s">
+      <c r="DO1" s="9"/>
+      <c r="DP1" s="9"/>
+      <c r="DQ1" s="9"/>
+      <c r="DR1" s="9"/>
+      <c r="DS1" s="9"/>
+      <c r="DT1" s="9"/>
+      <c r="DU1" s="9"/>
+      <c r="DV1" s="9"/>
+      <c r="DW1" s="9"/>
+      <c r="DX1" s="9"/>
+      <c r="DY1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="DX1" s="3"/>
-      <c r="DY1" s="3"/>
       <c r="DZ1" s="3"/>
       <c r="EA1" s="3"/>
       <c r="EB1" s="3"/>
       <c r="EC1" s="3"/>
       <c r="ED1" s="3"/>
+      <c r="EE1" s="3"/>
+      <c r="EF1" s="3"/>
     </row>
-    <row r="2" ht="37" customHeight="1" spans="1:134">
+    <row r="2" ht="37" customHeight="1" spans="1:136">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2396,13 +2429,13 @@
       <c r="BG2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BH2" s="3" t="s">
+      <c r="BH2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BI2" s="3" t="s">
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BJ2" s="3"/>
       <c r="BK2" s="3"/>
       <c r="BL2" s="3"/>
       <c r="BM2" s="3"/>
@@ -2410,86 +2443,86 @@
       <c r="BO2" s="3"/>
       <c r="BP2" s="3"/>
       <c r="BQ2" s="3"/>
-      <c r="BR2" s="3" t="s">
+      <c r="BR2" s="3"/>
+      <c r="BS2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BS2" s="3" t="s">
+      <c r="BT2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BT2" s="3" t="s">
+      <c r="BU2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BU2" s="3" t="s">
+      <c r="BV2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BV2" s="3" t="s">
+      <c r="BW2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="BW2" s="3" t="s">
+      <c r="BX2" s="7"/>
+      <c r="BY2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BX2" s="3" t="s">
+      <c r="BZ2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BY2" s="3" t="s">
+      <c r="CA2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BZ2" s="3" t="s">
+      <c r="CB2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="CA2" s="3" t="s">
+      <c r="CC2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="CB2" s="3" t="s">
+      <c r="CD2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="CC2" s="3" t="s">
+      <c r="CE2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="CD2" s="3" t="s">
+      <c r="CF2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="CE2" s="3" t="s">
+      <c r="CG2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="CF2" s="3" t="s">
+      <c r="CH2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="CG2" s="3" t="s">
+      <c r="CI2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="CH2" s="3" t="s">
+      <c r="CJ2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CI2" s="3" t="s">
+      <c r="CK2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CJ2" s="3" t="s">
+      <c r="CL2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="CK2" s="3" t="s">
+      <c r="CM2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="CL2" s="3" t="s">
+      <c r="CN2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="CM2" s="3" t="s">
+      <c r="CO2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="CN2" s="3" t="s">
+      <c r="CP2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="CO2" s="3" t="s">
+      <c r="CQ2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="CP2" s="3" t="s">
+      <c r="CR2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="CQ2" s="3" t="s">
+      <c r="CS2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="CR2" s="3"/>
-      <c r="CS2" s="3"/>
       <c r="CT2" s="3"/>
       <c r="CU2" s="3"/>
       <c r="CV2" s="3"/>
@@ -2507,68 +2540,70 @@
       <c r="DH2" s="3"/>
       <c r="DI2" s="3"/>
       <c r="DJ2" s="3"/>
-      <c r="DK2" s="3" t="s">
+      <c r="DK2" s="3"/>
+      <c r="DL2" s="3"/>
+      <c r="DM2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="DL2" s="3" t="s">
+      <c r="DN2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="DM2" s="3" t="s">
+      <c r="DO2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="DN2" s="3" t="s">
+      <c r="DP2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="DO2" s="3" t="s">
+      <c r="DQ2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="DP2" s="3" t="s">
+      <c r="DR2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="DQ2" s="3" t="s">
+      <c r="DS2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="DR2" s="3" t="s">
+      <c r="DT2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="DS2" s="3" t="s">
+      <c r="DU2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="DT2" s="3" t="s">
+      <c r="DV2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="DU2" s="3" t="s">
+      <c r="DW2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="DV2" s="3" t="s">
+      <c r="DX2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="DW2" s="3" t="s">
+      <c r="DY2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="DX2" s="3" t="s">
+      <c r="DZ2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="DY2" s="3" t="s">
+      <c r="EA2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="DZ2" s="3" t="s">
+      <c r="EB2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="EA2" s="3" t="s">
+      <c r="EC2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="EB2" s="3" t="s">
+      <c r="ED2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="EC2" s="3" t="s">
+      <c r="EE2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="ED2" s="3" t="s">
+      <c r="EF2" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" ht="96" customHeight="1" spans="1:134">
+    <row r="3" ht="96" customHeight="1" spans="1:136">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2650,41 +2685,49 @@
       <c r="BE3" s="3"/>
       <c r="BF3" s="3"/>
       <c r="BG3" s="3"/>
-      <c r="BH3" s="3"/>
+      <c r="BH3" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="BI3" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BJ3" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BK3" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BL3" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BM3" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BN3" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BO3" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BP3" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BQ3" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="BR3" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="BR3" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="BS3" s="3"/>
       <c r="BT3" s="3"/>
       <c r="BU3" s="3"/>
       <c r="BV3" s="3"/>
-      <c r="BW3" s="3"/>
-      <c r="BX3" s="3"/>
+      <c r="BW3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX3" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="BY3" s="3"/>
       <c r="BZ3" s="3"/>
       <c r="CA3" s="3"/>
@@ -2703,12 +2746,8 @@
       <c r="CN3" s="3"/>
       <c r="CO3" s="3"/>
       <c r="CP3" s="3"/>
-      <c r="CQ3" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="CR3" s="5" t="s">
-        <v>131</v>
-      </c>
+      <c r="CQ3" s="3"/>
+      <c r="CR3" s="3"/>
       <c r="CS3" s="5" t="s">
         <v>132</v>
       </c>
@@ -2763,8 +2802,12 @@
       <c r="DJ3" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="DK3" s="3"/>
-      <c r="DL3" s="3"/>
+      <c r="DK3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL3" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="DM3" s="3"/>
       <c r="DN3" s="3"/>
       <c r="DO3" s="3"/>
@@ -2783,409 +2826,417 @@
       <c r="EB3" s="3"/>
       <c r="EC3" s="3"/>
       <c r="ED3" s="3"/>
+      <c r="EE3" s="3"/>
+      <c r="EF3" s="3"/>
     </row>
-    <row r="4" ht="36" spans="1:134">
+    <row r="4" ht="18" spans="1:136">
       <c r="A4" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="BE4" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="BO4" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="BQ4" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="BT4" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="BU4" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="BX4" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="BY4" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="CB4" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="CC4" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="CD4" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="CE4" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="CF4" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="CG4" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="CI4" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="CJ4" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="CL4" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="CM4" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="CN4" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="CO4" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="CP4" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="CQ4" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="CS4" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="CU4" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="CV4" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="CW4" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CX4" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CY4" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="CZ4" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="DA4" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="DB4" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="DC4" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="DD4" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="DE4" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="DF4" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="DG4" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="DH4" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="DI4" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="DJ4" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="DK4" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="DL4" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="DM4" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="DN4" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="DO4" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="DP4" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="DQ4" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="DR4" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="DS4" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="DT4" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="DU4" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="DV4" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="DW4" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="DX4" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DY4" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="DZ4" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="EA4" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="EB4" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="EC4" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="ED4" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
+      </c>
+      <c r="EE4" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="EF4" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3194,18 +3245,20 @@
     <mergeCell ref="R1:AB1"/>
     <mergeCell ref="AC1:AW1"/>
     <mergeCell ref="AX1:BF1"/>
-    <mergeCell ref="BG1:BQ1"/>
-    <mergeCell ref="BR1:BV1"/>
-    <mergeCell ref="BW1:CB1"/>
-    <mergeCell ref="CC1:CG1"/>
-    <mergeCell ref="CH1:CP1"/>
-    <mergeCell ref="CQ1:DK1"/>
-    <mergeCell ref="DL1:DV1"/>
-    <mergeCell ref="DW1:ED1"/>
+    <mergeCell ref="BG1:BR1"/>
+    <mergeCell ref="BS1:BX1"/>
+    <mergeCell ref="BY1:CD1"/>
+    <mergeCell ref="CE1:CI1"/>
+    <mergeCell ref="CJ1:CR1"/>
+    <mergeCell ref="CS1:DM1"/>
+    <mergeCell ref="DN1:DX1"/>
+    <mergeCell ref="DY1:EF1"/>
     <mergeCell ref="AD2:AJ2"/>
     <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="BI2:BQ2"/>
-    <mergeCell ref="CQ2:DJ2"/>
+    <mergeCell ref="BH2:BI2"/>
+    <mergeCell ref="BJ2:BR2"/>
+    <mergeCell ref="BW2:BX2"/>
+    <mergeCell ref="CS2:DL2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -3254,14 +3307,10 @@
     <mergeCell ref="BE2:BE3"/>
     <mergeCell ref="BF2:BF3"/>
     <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="BR2:BR3"/>
     <mergeCell ref="BS2:BS3"/>
     <mergeCell ref="BT2:BT3"/>
     <mergeCell ref="BU2:BU3"/>
     <mergeCell ref="BV2:BV3"/>
-    <mergeCell ref="BW2:BW3"/>
-    <mergeCell ref="BX2:BX3"/>
     <mergeCell ref="BY2:BY3"/>
     <mergeCell ref="BZ2:BZ3"/>
     <mergeCell ref="CA2:CA3"/>
@@ -3280,8 +3329,8 @@
     <mergeCell ref="CN2:CN3"/>
     <mergeCell ref="CO2:CO3"/>
     <mergeCell ref="CP2:CP3"/>
-    <mergeCell ref="DK2:DK3"/>
-    <mergeCell ref="DL2:DL3"/>
+    <mergeCell ref="CQ2:CQ3"/>
+    <mergeCell ref="CR2:CR3"/>
     <mergeCell ref="DM2:DM3"/>
     <mergeCell ref="DN2:DN3"/>
     <mergeCell ref="DO2:DO3"/>
@@ -3300,6 +3349,8 @@
     <mergeCell ref="EB2:EB3"/>
     <mergeCell ref="EC2:EC3"/>
     <mergeCell ref="ED2:ED3"/>
+    <mergeCell ref="EE2:EE3"/>
+    <mergeCell ref="EF2:EF3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
